--- a/data/trans_bre/IP04F-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP04F-Estudios-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_bre/IP04F-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP04F-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,8 +514,6 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -538,14 +529,12 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -562,22 +551,12 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -588,13 +567,11 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>64,46%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>-13,82%</t>
         </is>
       </c>
     </row>
@@ -642,39 +609,29 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,94; 11,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,65; 5,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,76; 397,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-84,76; 386,32</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>17,82%</t>
         </is>
       </c>
     </row>
@@ -722,39 +669,29 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 3,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 3,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,07; 76,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-23,66; 93,76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>16,12%</t>
         </is>
       </c>
     </row>
@@ -802,39 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,18; 8,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; 9,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,06; 50,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-19,06; 72,86</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>14,02%</t>
         </is>
       </c>
     </row>
@@ -882,129 +789,38 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 3,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 3,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,44; 46,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-14,68; 54,23</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
